--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,10 +94,10 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>0.3373239234387296</v>
+        <v>0.2500846047303333</v>
       </c>
       <c r="R2">
-        <v>0.3373239234387296</v>
+        <v>1.500507628382</v>
       </c>
       <c r="S2">
-        <v>0.3139184641402641</v>
+        <v>0.119372355982848</v>
       </c>
       <c r="T2">
-        <v>0.3139184641402641</v>
+        <v>0.1229017705659605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.02519631577358494</v>
+        <v>0.01982140899655555</v>
       </c>
       <c r="R3">
-        <v>0.02519631577358494</v>
+        <v>0.178392680969</v>
       </c>
       <c r="S3">
-        <v>0.02344805156125716</v>
+        <v>0.009461311276517226</v>
       </c>
       <c r="T3">
-        <v>0.02344805156125716</v>
+        <v>0.01461157273204946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>0.176406741744849</v>
+        <v>0.05347428436955555</v>
       </c>
       <c r="R4">
-        <v>0.176406741744849</v>
+        <v>0.4812685593259999</v>
       </c>
       <c r="S4">
-        <v>0.164166635049203</v>
+        <v>0.02552476717458802</v>
       </c>
       <c r="T4">
-        <v>0.164166635049203</v>
+        <v>0.03941916518123578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>0.2123981488448601</v>
+        <v>0.1298546739105556</v>
       </c>
       <c r="R5">
-        <v>0.2123981488448601</v>
+        <v>1.168692065195</v>
       </c>
       <c r="S5">
-        <v>0.1976607528808269</v>
+        <v>0.06198325713333015</v>
       </c>
       <c r="T5">
-        <v>0.1976607528808269</v>
+        <v>0.0957238212868905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,49 +788,483 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>0.3232339101148113</v>
+        <v>0.1558129860503333</v>
       </c>
       <c r="R6">
-        <v>0.3232339101148113</v>
+        <v>1.402316874453</v>
       </c>
       <c r="S6">
-        <v>0.3008060963684488</v>
+        <v>0.07437388342080105</v>
       </c>
       <c r="T6">
-        <v>0.3008060963684488</v>
+        <v>0.1148592806226782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1301303333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.390391</v>
+      </c>
+      <c r="I7">
+        <v>0.4028730131292778</v>
+      </c>
+      <c r="J7">
+        <v>0.5029891437391611</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.8056465</v>
+      </c>
+      <c r="N7">
+        <v>3.611293</v>
+      </c>
+      <c r="O7">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P7">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q7">
+        <v>0.2349693809271666</v>
+      </c>
+      <c r="R7">
+        <v>1.409816285563</v>
+      </c>
+      <c r="S7">
+        <v>0.1121574381411934</v>
+      </c>
+      <c r="T7">
+        <v>0.1154735333503467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1928755</v>
+      </c>
+      <c r="H8">
+        <v>0.385751</v>
+      </c>
+      <c r="I8">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J8">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.921801</v>
+      </c>
+      <c r="N8">
+        <v>3.843602</v>
+      </c>
+      <c r="O8">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P8">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q8">
+        <v>0.3706683287755</v>
+      </c>
+      <c r="R8">
+        <v>1.482673315102</v>
+      </c>
+      <c r="S8">
+        <v>0.1769303302051262</v>
+      </c>
+      <c r="T8">
+        <v>0.1214410191259272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1928755</v>
+      </c>
+      <c r="H9">
+        <v>0.385751</v>
+      </c>
+      <c r="I9">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J9">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.456959</v>
+      </c>
+      <c r="O9">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P9">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q9">
+        <v>0.02937873186816667</v>
+      </c>
+      <c r="R9">
+        <v>0.176272391209</v>
+      </c>
+      <c r="S9">
+        <v>0.01402328800956399</v>
+      </c>
+      <c r="T9">
+        <v>0.01443790659354547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1928755</v>
+      </c>
+      <c r="H10">
+        <v>0.385751</v>
+      </c>
+      <c r="I10">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J10">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.232786</v>
+      </c>
+      <c r="O10">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P10">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q10">
+        <v>0.07925807204766668</v>
+      </c>
+      <c r="R10">
+        <v>0.475548432286</v>
+      </c>
+      <c r="S10">
+        <v>0.03783208806951686</v>
+      </c>
+      <c r="T10">
+        <v>0.03895064790896021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1928755</v>
+      </c>
+      <c r="H11">
+        <v>0.385751</v>
+      </c>
+      <c r="I11">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J11">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.993645</v>
+      </c>
+      <c r="O11">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P11">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q11">
+        <v>0.1924669253991667</v>
+      </c>
+      <c r="R11">
+        <v>1.154801552395</v>
+      </c>
+      <c r="S11">
+        <v>0.09186983084563645</v>
+      </c>
+      <c r="T11">
+        <v>0.09458609390390481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1928755</v>
+      </c>
+      <c r="H12">
+        <v>0.385751</v>
+      </c>
+      <c r="I12">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J12">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.197361</v>
+      </c>
+      <c r="N12">
+        <v>3.592083</v>
+      </c>
+      <c r="O12">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P12">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q12">
+        <v>0.2309416015555</v>
+      </c>
+      <c r="R12">
+        <v>1.385649609333</v>
+      </c>
+      <c r="S12">
+        <v>0.1102348667238388</v>
+      </c>
+      <c r="T12">
+        <v>0.1134941183569261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1928755</v>
+      </c>
+      <c r="H13">
+        <v>0.385751</v>
+      </c>
+      <c r="I13">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J13">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.8056465</v>
+      </c>
+      <c r="N13">
+        <v>3.611293</v>
+      </c>
+      <c r="O13">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P13">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q13">
+        <v>0.34826497151075</v>
+      </c>
+      <c r="R13">
+        <v>1.393059886043</v>
+      </c>
+      <c r="S13">
+        <v>0.1662365830170399</v>
+      </c>
+      <c r="T13">
+        <v>0.1141010703715751</v>
       </c>
     </row>
   </sheetData>
